--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>领航教育零散材料明细</t>
   </si>
@@ -229,6 +229,9 @@
     <t>小工清场</t>
   </si>
   <si>
+    <t>门锁</t>
+  </si>
+  <si>
     <t>领航教育主要材料明细</t>
   </si>
   <si>
@@ -319,7 +322,25 @@
     <t>提脚线</t>
   </si>
   <si>
-    <t>小计</t>
+    <t>梯步砖</t>
+  </si>
+  <si>
+    <t>步</t>
+  </si>
+  <si>
+    <t>含运费</t>
+  </si>
+  <si>
+    <t>楼梯间三角板</t>
+  </si>
+  <si>
+    <t>消防</t>
+  </si>
+  <si>
+    <t>预付款</t>
+  </si>
+  <si>
+    <t>消防审图资质盖章</t>
   </si>
   <si>
     <t>领航教育工人工资表</t>
@@ -382,6 +403,15 @@
     <t>挑黄沙上楼</t>
   </si>
   <si>
+    <t>装潢设计</t>
+  </si>
+  <si>
+    <t>装修材料管理人员工资</t>
+  </si>
+  <si>
+    <t>装修期间</t>
+  </si>
+  <si>
     <t>领航教育生活费、借条</t>
   </si>
   <si>
@@ -398,6 +428,21 @@
   </si>
   <si>
     <t>吊材料</t>
+  </si>
+  <si>
+    <t>杨春辉经手</t>
+  </si>
+  <si>
+    <t>涂料师傅</t>
+  </si>
+  <si>
+    <t>打扫卫生</t>
+  </si>
+  <si>
+    <t>钛金包边</t>
+  </si>
+  <si>
+    <t>请艾吃饭</t>
   </si>
   <si>
     <t>杨成</t>
@@ -431,52 +476,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -492,6 +499,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -499,7 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,8 +526,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -528,16 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,22 +605,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +645,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,91 +777,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,72 +801,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -792,16 +837,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +869,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,52 +941,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,160 +966,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1378,994 +1451,1009 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="9.975" customWidth="1"/>
     <col min="4" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>4</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>50</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>1.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>80</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>7.5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>20</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>50</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>400</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>0.8</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>320</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <v>14</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>30</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <v>420</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>17</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>204</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>20</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <v>20</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>20</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="9">
         <v>60</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <v>15</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="9">
         <v>15</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <v>160</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="9">
         <v>320</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <v>70</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="9">
         <v>70</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="6">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="9">
         <v>8</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>40</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="6">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <v>5</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <v>30</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:7">
-      <c r="A23" s="6">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>20</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>40</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <v>10</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <v>10</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:7">
-      <c r="A25" s="6">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="9">
         <v>8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>40</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:7">
-      <c r="A26" s="6">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="9">
         <v>6</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="9">
         <v>18</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:7">
-      <c r="A27" s="6">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>20</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>40</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="9">
         <v>27</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <v>10</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="9">
         <v>270</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:7">
-      <c r="A29" s="6">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>8</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>16</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="6">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="9">
         <v>12</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>26</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="9">
         <v>312</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:7">
-      <c r="A31" s="6">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>10</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="9">
         <v>10</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:7">
-      <c r="A32" s="6">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="9">
         <v>3</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <v>7</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="9">
         <v>21</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:7">
-      <c r="A33" s="6">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="9">
         <v>20</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <v>0.5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="9">
         <v>10</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:7">
-      <c r="A34" s="6">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>3</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <v>12</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="9">
         <v>36</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:7">
-      <c r="A35" s="6">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <v>6</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="9">
         <v>12</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:7">
-      <c r="A36" s="6">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="9">
         <v>5</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <v>3</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="9">
         <v>15</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:7">
-      <c r="A37" s="6">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="9">
         <v>6</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <v>5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="9">
         <v>30</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:7">
-      <c r="A38" s="6">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="9">
         <v>2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <v>5</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="9">
         <v>10</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:7">
-      <c r="A39" s="6">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="9">
         <v>1</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="9">
         <v>20</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="9">
         <v>20</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:7">
-      <c r="A40" s="6">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="9">
         <v>40</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="9">
         <v>40</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:7">
-      <c r="A41" s="6">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="9">
         <v>1</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="9">
         <v>520</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="9">
         <v>520</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:7">
-      <c r="A42" s="6">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="9">
         <v>16</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="9">
         <v>6</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="9">
         <v>100</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:7">
-      <c r="A43" s="6">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="9">
         <v>100</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="9">
         <v>0.01</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="9">
         <v>200</v>
       </c>
-      <c r="G43" s="6"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:7">
-      <c r="A44" s="6">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="9">
         <v>2</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="9">
         <v>10</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="9">
         <v>20</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:7">
-      <c r="A45" s="6">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
         <v>100</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="9">
         <v>100</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:7">
-      <c r="A46" s="6">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9">
         <v>900</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="9">
         <v>900</v>
       </c>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" ht="19" customHeight="1" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
-        <v>4668</v>
-      </c>
-      <c r="G47" s="7"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" s="11" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A47" s="12">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="12">
+        <v>4</v>
+      </c>
+      <c r="E47" s="12">
+        <v>30</v>
+      </c>
+      <c r="F47" s="12">
+        <v>120</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48">
+        <v>4788</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2381,10 +2469,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2397,538 +2485,603 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="29" customHeight="1" spans="1:7">
-      <c r="A3" s="6">
+    <row r="3" ht="30" customHeight="1" spans="1:7">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="6">
+      <c r="C3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="9">
         <v>23</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>200</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <f>D3*E3</f>
         <v>4600</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="29" customHeight="1" spans="1:7">
-      <c r="A4" s="6">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:7">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="9">
         <v>38</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>270</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F14" si="0">D4*E4</f>
         <v>10260</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="29" customHeight="1" spans="1:7">
-      <c r="A5" s="6">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:7">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9">
         <v>24</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>120</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:7">
-      <c r="A6" s="6">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:7">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="9">
         <v>72</v>
       </c>
-      <c r="D6" s="6">
-        <v>72</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>120</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="1:7">
-      <c r="A7" s="6">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:7">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>11590</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>1.7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>19703</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:7">
-      <c r="A8" s="6">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:7">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>220</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>1.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="1:7">
-      <c r="A9" s="6">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:7">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>50</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>1.7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="29" customHeight="1" spans="1:7">
-      <c r="A10" s="6">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>4400</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>1.7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>7480</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="29" customHeight="1" spans="1:7">
-      <c r="A11" s="6">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:7">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>120</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="29" customHeight="1" spans="1:7">
-      <c r="A12" s="6">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:7">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <v>21</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>150</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="29" customHeight="1" spans="1:7">
-      <c r="A13" s="6">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:7">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>20</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" ht="29" customHeight="1" spans="1:7">
-      <c r="A14" s="6">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:7">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>440</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" ht="29" customHeight="1" spans="1:7">
-      <c r="A15" s="6">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" ht="29" customHeight="1" spans="1:7">
-      <c r="A16" s="6">
+      <c r="B15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:7">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" ht="29" customHeight="1" spans="1:7">
-      <c r="A17" s="6">
+      <c r="B16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" ht="29" customHeight="1" spans="1:7">
-      <c r="A18" s="6">
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:7">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>150</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" ht="29" customHeight="1" spans="1:7">
-      <c r="A19" s="6">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:7">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" ht="29" customHeight="1" spans="1:7">
-      <c r="A20" s="6">
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:7">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" ht="29" customHeight="1" spans="1:7">
-      <c r="A21" s="6">
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:7">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" ht="29" customHeight="1" spans="1:7">
-      <c r="A22" s="6">
+      <c r="B21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:7">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" ht="29" customHeight="1" spans="1:7">
-      <c r="A23" s="6">
+      <c r="C22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:7">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" ht="29" customHeight="1" spans="1:7">
-      <c r="A24" s="6">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:7">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" ht="29" customHeight="1" spans="1:7">
-      <c r="A25" s="6">
+      <c r="B24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:7">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" ht="29" customHeight="1" spans="1:7">
-      <c r="A26" s="6">
+      <c r="B25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:7">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" ht="29" customHeight="1" spans="1:7">
-      <c r="A27" s="6">
+      <c r="B26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:7">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:7">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" ht="29" customHeight="1" spans="1:7">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" ht="29" customHeight="1" spans="1:7">
-      <c r="A29" s="6">
+      <c r="C28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" ht="29" customHeight="1" spans="1:7">
-      <c r="A30" s="6">
+      <c r="B29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" ht="27" customHeight="1" spans="1:7">
-      <c r="A31" s="6">
+      <c r="B30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3">
+        <v>60</v>
+      </c>
+      <c r="E31" s="3">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1320</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>35</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="6:6">
+      <c r="F35">
+        <f>SUM(F3:F34)</f>
+        <v>82243</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,333 +3097,333 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.35833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="B3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
         <v>25860</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
+      <c r="G3" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="B4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>22800</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>19420</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>6150</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="B7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>10778</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>3000</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="B14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>5000</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>113</v>
+      <c r="G14" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="B15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>2000</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>113</v>
+      <c r="G15" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="B16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>14957</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
+      <c r="B17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>1394</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>113</v>
+      <c r="G17" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="9">
         <v>133</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <v>530</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:7">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -3283,18 +3436,43 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="1:7">
-      <c r="A22" s="6">
+    <row r="22" ht="30" customHeight="1" spans="1:7">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>2000</v>
+      </c>
       <c r="G22" s="3"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="6:6">
+      <c r="F24">
+        <f>SUM(F3:F23)</f>
+        <v>116129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3310,10 +3488,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3326,7 +3504,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3343,10 +3521,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -3357,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4">
         <v>42560</v>
       </c>
       <c r="D3" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3372,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4">
         <v>42564</v>
@@ -3387,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4">
         <v>42564</v>
@@ -3402,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4">
         <v>42575</v>
@@ -3416,125 +3594,190 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>42549</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>42559</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>440</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>42563</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:5">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>42574</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
+      <c r="B11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>590</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1"/>
     <row r="13" ht="36" customHeight="1" spans="1:5">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42602</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1400</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:5">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>42608</v>
+        <v>42549</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:5">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>42609</v>
+        <v>42559</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="36" customHeight="1" spans="1:5">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>42622</v>
+        <v>42563</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>42574</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>42602</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42608</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>500</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>42609</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>42622</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
         <v>200</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>领航教育零散材料明细</t>
   </si>
@@ -277,6 +277,9 @@
     <t>水电材料</t>
   </si>
   <si>
+    <t>见附件（估）</t>
+  </si>
+  <si>
     <t>灯具</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>吊顶材料</t>
   </si>
   <si>
+    <t>见附件</t>
+  </si>
+  <si>
     <t>监控</t>
   </si>
   <si>
@@ -361,16 +367,16 @@
     <t>吊顶</t>
   </si>
   <si>
+    <t>平米</t>
+  </si>
+  <si>
     <t>电工</t>
   </si>
   <si>
-    <t>宝洁</t>
-  </si>
-  <si>
-    <t>点工封墙</t>
-  </si>
-  <si>
-    <t>点工清洁</t>
+    <t>保洁</t>
+  </si>
+  <si>
+    <t>点工封墙、点工清洁</t>
   </si>
   <si>
     <t>木工</t>
@@ -454,8 +460,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -474,9 +480,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,23 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +556,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +610,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,76 +618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,13 +633,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +711,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,157 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,8 +858,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +903,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -884,41 +923,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,9 +944,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,137 +972,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,9 +1118,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,13 +1130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1466,989 +1469,989 @@
   </cols>
   <sheetData>
     <row r="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>12</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>50</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>80</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>7.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>15</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>10</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>50</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>400</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.8</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>320</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>30</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>420</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>17</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>204</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>4</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>20</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>20</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>15</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>160</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>320</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>70</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>70</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>8</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>40</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>30</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>40</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>10</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>10</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>8</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>40</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:7">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>6</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>3</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>18</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>20</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>40</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>27</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>10</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>270</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>8</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>16</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>12</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>26</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>312</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>10</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>10</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:7">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>3</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>7</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>21</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>20</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>10</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:7">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>3</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>12</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>36</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>12</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>5</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>3</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>15</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>6</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>5</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>30</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:7">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>5</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>10</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>20</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>40</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>40</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>520</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>520</v>
       </c>
-      <c r="G41" s="9"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:7">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>16</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>6</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>100</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>100</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.01</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>200</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:7">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>10</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>20</v>
       </c>
-      <c r="G44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
         <v>100</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>100</v>
       </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:7">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8">
         <v>900</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>900</v>
       </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" s="11" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A47" s="12">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="3">
         <v>4</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="3">
         <v>30</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="3">
         <v>120</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="6:6">
       <c r="F48">
@@ -2472,7 +2475,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2485,535 +2488,567 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>23</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>200</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>D3*E3</f>
         <v>4600</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>38</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>270</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F14" si="0">D4*E4</f>
         <v>10260</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>24</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>120</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>72</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>120</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>11590</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1.7</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>19703</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>220</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>50</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1.7</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4400</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1.7</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>7480</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>120</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>21</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>150</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>20</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>440</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>25000</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>9000</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>11440</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="C18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="8">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8">
         <v>150</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="8">
+        <v>1950</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <v>70000</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:7">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>31891</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>19425</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:7">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3">
         <v>60</v>
@@ -3025,36 +3060,36 @@
         <v>1320</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>35</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>35</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3063,24 +3098,28 @@
         <v>20000</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="6:6">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="6:6">
       <c r="F35">
         <f>SUM(F3:F34)</f>
-        <v>82243</v>
+        <v>250949</v>
       </c>
     </row>
   </sheetData>
@@ -3097,10 +3136,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3112,336 +3151,362 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>25860</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>110</v>
+      <c r="G3" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>22800</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>19420</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <v>6150</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>10778</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1362</v>
+      </c>
+      <c r="E8" s="8">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>17706</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1460</v>
+      </c>
+      <c r="E9" s="8">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23360</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
         <v>3000</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>2400</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="B14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>14957</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:7">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>1394</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8">
+        <v>133</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>530</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:7">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:7">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <v>2700</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:7">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="F20" s="3">
+        <v>240</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:7">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
-        <v>14957</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <v>1394</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="9">
-        <v>133</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9">
-        <v>530</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3">
-        <v>240</v>
-      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3449,29 +3514,14 @@
       <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:7">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="6:6">
-      <c r="F24">
-        <f>SUM(F3:F23)</f>
-        <v>116129</v>
+      <c r="G22" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="6:6">
+      <c r="F23">
+        <f>SUM(F3:F22)</f>
+        <v>172295</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3540,7 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3504,7 +3554,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3521,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -3535,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4">
         <v>42560</v>
@@ -3550,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4">
         <v>42564</v>
@@ -3565,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4">
         <v>42564</v>
@@ -3580,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4">
         <v>42575</v>
@@ -3595,81 +3645,81 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3">
         <v>1000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3">
         <v>2000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>440</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>590</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1"/>
     <row r="13" ht="36" customHeight="1" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>

--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>领航教育零散材料明细</t>
   </si>
@@ -457,14 +457,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,345 +474,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -854,260 +524,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,9 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,59 +561,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1452,1008 +838,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="9.975" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="8">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:7">
-      <c r="A5" s="8">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>12</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:7">
-      <c r="A6" s="8">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1.6</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>80</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="8">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>7.5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>15</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="8">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="8">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>20</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="8">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>50</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>400</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>0.8</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>320</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:7">
-      <c r="A12" s="8">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>14</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>30</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>420</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>17</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>204</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:7">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="8">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>20</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="8">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>20</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="8">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>20</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>60</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:7">
-      <c r="A18" s="8">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>15</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>15</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="8">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>160</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>320</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="8">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>70</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>70</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="8">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>40</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="8">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>6</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>30</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:7">
-      <c r="A23" s="8">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>20</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>40</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:7">
-      <c r="A24" s="8">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>10</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>10</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:7">
-      <c r="A25" s="8">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>8</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>40</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:7">
-      <c r="A26" s="8">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>6</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>3</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>18</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:7">
-      <c r="A27" s="8">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>20</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>40</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:7">
-      <c r="A28" s="8">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>27</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="6">
         <v>10</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>270</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="1:7">
-      <c r="A29" s="8">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>8</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>16</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="8">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>12</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>26</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>312</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:7">
-      <c r="A31" s="8">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>10</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>10</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:7">
-      <c r="A32" s="8">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <v>7</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>21</v>
       </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="1:7">
-      <c r="A33" s="8">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>20</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <v>0.5</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>10</v>
       </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:7">
-      <c r="A34" s="8">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>3</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <v>12</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>36</v>
       </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:7">
-      <c r="A35" s="8">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>6</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>12</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:7">
-      <c r="A36" s="8">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>3</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>15</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="1:7">
-      <c r="A37" s="8">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <v>5</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>30</v>
       </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="1:7">
-      <c r="A38" s="8">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <v>5</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>10</v>
       </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" ht="20" customHeight="1" spans="1:7">
-      <c r="A39" s="8">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <v>20</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>20</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" ht="20" customHeight="1" spans="1:7">
-      <c r="A40" s="8">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>1</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <v>40</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <v>40</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="1:7">
-      <c r="A41" s="8">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="6">
         <v>520</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>520</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="1:7">
-      <c r="A42" s="8">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>16</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>6</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>100</v>
       </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="1:7">
-      <c r="A43" s="8">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>100</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>0.01</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <v>200</v>
       </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" ht="20" customHeight="1" spans="1:7">
-      <c r="A44" s="8">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="6">
         <v>10</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <v>20</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" ht="20" customHeight="1" spans="1:7">
-      <c r="A45" s="8">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
         <v>100</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>100</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="20" customHeight="1" spans="1:7">
-      <c r="A46" s="8">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
         <v>900</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>900</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" s="11" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A47" s="3">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>30</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>120</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="6:6">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F48">
         <v>4788</v>
       </c>
@@ -2462,1063 +1847,1061 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.511805555555556" bottom="0.393055555555556" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.51180555555555596" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.35" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="10.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>23</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f>D3*E3</f>
         <v>4600</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="8">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>38</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>270</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F14" si="0">D4*E4</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
         <v>10260</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="8">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>120</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="8">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>72</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>120</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="8">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>11590</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1.7</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>19703</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="8">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>220</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>1.5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="8">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>50</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>1.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="8">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>4400</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>1.7</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>7480</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>120</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="8">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>21</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>150</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="8">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>20</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="8">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>440</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="8">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>25000</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>9000</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="8">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
         <v>11440</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="8">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>13</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>150</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>1950</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="8">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>70000</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>68000</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="8">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>1500</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>13.5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>31891</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="8">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>19425</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="8">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:7">
-      <c r="A23" s="8">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:7">
-      <c r="A24" s="8">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:7">
-      <c r="A25" s="8">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:7">
-      <c r="A26" s="8">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:7">
-      <c r="A27" s="8">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="30" customHeight="1" spans="1:7">
-      <c r="A28" s="8">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="8">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="8">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="8">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>60</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>22</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>1320</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>35</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>35</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="10">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
         <v>20000</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A34" s="3">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <v>3000</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="6:6">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F35">
         <f>SUM(F3:F34)</f>
-        <v>250949</v>
+        <v>248949</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.590277777777778" bottom="0.747916666666667" header="0.94375" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.59027777777777801" bottom="0.74791666666666701" header="0.94374999999999998" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.35833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>25860</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="8">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>22800</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="8">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>19420</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="8">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>6150</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="8">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>10778</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="8">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1362</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>13</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>17706</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="8">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1460</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>16</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>23360</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="8">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>3000</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>2400</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="8">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>6000</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="8">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>5000</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>2000</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="8">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>14957</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="8">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>1394</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="8">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>133</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
         <v>530</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="8">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>4000</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="8">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <v>2700</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="8">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>120</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>240</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="8">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>2000</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="8">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="6:6">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23">
         <f>SUM(F3:F22)</f>
         <v>172295</v>
@@ -3528,23 +2911,22 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
@@ -3552,290 +2934,290 @@
     <col min="5" max="5" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="36" customHeight="1" spans="1:5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>42560</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5000</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:5">
-      <c r="A4" s="3">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>42564</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5000</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:5">
-      <c r="A5" s="3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>42564</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3000</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>42575</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4000</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>1000</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" ht="36" customHeight="1" spans="1:5">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2">
         <v>2000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" ht="36" customHeight="1" spans="1:5">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>3000</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" ht="36" customHeight="1" spans="1:5">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>440</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" ht="36" customHeight="1" spans="1:5">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>590</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" ht="36" customHeight="1"/>
-    <row r="13" ht="36" customHeight="1" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:5">
-      <c r="A14" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>42549</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>2000</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:5">
-      <c r="A15" s="3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>42559</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>6000</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>42563</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>10000</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:5">
-      <c r="A17" s="3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>42574</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>4000</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:5">
-      <c r="A18" s="3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>42602</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>1400</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:5">
-      <c r="A19" s="3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>42608</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>500</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:5">
-      <c r="A20" s="3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>42609</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>500</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:5">
-      <c r="A21" s="3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>42622</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <v>200</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2173,7 +2173,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>86</v>
@@ -2503,7 +2503,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F35">
         <f>SUM(F3:F34)</f>
-        <v>248949</v>
+        <v>247949</v>
       </c>
     </row>
   </sheetData>

--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
   <si>
     <t>领航教育零散材料明细</t>
   </si>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>杨成</t>
+  </si>
+  <si>
+    <t>见附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -841,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1858,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2301,8 +2305,12 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="6">
+        <v>58000</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
@@ -2503,7 +2511,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F35">
         <f>SUM(F3:F34)</f>
-        <v>247949</v>
+        <v>305949</v>
       </c>
     </row>
   </sheetData>
@@ -2521,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/开支收入/领航教育人工材料.xlsx
+++ b/开支收入/领航教育人工材料.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="164">
   <si>
     <t>领航教育零散材料明细</t>
   </si>
@@ -304,27 +304,6 @@
     <t>监控</t>
   </si>
   <si>
-    <t>800*800</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>600*600</t>
-  </si>
-  <si>
-    <t>800*800黑色</t>
-  </si>
-  <si>
-    <t>600*600黑色</t>
-  </si>
-  <si>
-    <t>300*300</t>
-  </si>
-  <si>
-    <t>300*600</t>
-  </si>
-  <si>
     <t>提脚线</t>
   </si>
   <si>
@@ -352,21 +331,12 @@
     <t>领航教育工人工资表</t>
   </si>
   <si>
-    <t>吴封墙粉刷</t>
-  </si>
-  <si>
     <t>祥见清单附件</t>
   </si>
   <si>
     <t>俞涂料</t>
   </si>
   <si>
-    <t>贴砖</t>
-  </si>
-  <si>
-    <t>吊顶</t>
-  </si>
-  <si>
     <t>平米</t>
   </si>
   <si>
@@ -455,6 +425,119 @@
   </si>
   <si>
     <t>见附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过道地面砖800*800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内地面砖600*600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛砖800*800黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛砖600*600黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间地面砖300*300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间墙面砖300*600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅地面砖800*800彩黄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房墙砖300*600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房地面砖600*600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗粉墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补墙孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封讲台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴地面砖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴脚线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴梯步砖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴卫生间砖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅盖板吊顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间防水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧台、大厅吊顶
+、室内包过梁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +646,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,15 +947,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1843,8 +1932,33 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F48">
-        <v>4788</v>
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="11">
+        <v>5</v>
+      </c>
+      <c r="E48" s="11">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49">
+        <f>SUM(F3:F48)</f>
+        <v>4678</v>
       </c>
     </row>
   </sheetData>
@@ -1854,37 +1968,37 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.51180555555555596" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2200,7 +2314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2215,7 +2329,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2236,7 +2350,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2253,7 +2367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2276,7 +2390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2287,231 +2401,315 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6">
-        <v>19425</v>
+        <v>20015</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D22" s="6">
+        <v>606</v>
+      </c>
+      <c r="E22" s="6">
+        <v>18.600000000000001</v>
+      </c>
       <c r="F22" s="6">
-        <v>58000</v>
+        <v>11271.6</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2666</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>27993</v>
+      </c>
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D24" s="6">
+        <v>85</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1700</v>
+      </c>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D25" s="6">
+        <v>70</v>
+      </c>
+      <c r="E25" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>665</v>
+      </c>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D26" s="6">
+        <v>467</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1167.5</v>
+      </c>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1346</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4038</v>
+      </c>
       <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D28" s="6">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2700</v>
+      </c>
       <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D29" s="6">
+        <v>240</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>720</v>
+      </c>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D30" s="6">
+        <v>72</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>684</v>
+      </c>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1420</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2272</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2">
         <v>60</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>22</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>1320</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>35</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>35</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
         <v>20000</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="G34" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
         <v>3000</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F35">
-        <f>SUM(F3:F34)</f>
-        <v>305949</v>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <f>SUM(F3:F35)</f>
+        <v>301750.09999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2527,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,19 +2736,19 @@
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2576,79 +2774,103 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="6">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
       <c r="F3" s="6">
-        <v>25860</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
       <c r="F4" s="6">
-        <v>22800</v>
+        <v>1800</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2950</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
       <c r="F5" s="6">
-        <v>19420</v>
+        <v>11800</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6">
+        <v>14875</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.8</v>
+      </c>
       <c r="F6" s="6">
-        <v>6150</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>11900</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>10778</v>
+        <v>22800</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -2657,19 +2879,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6">
-        <v>1362</v>
+        <v>1370.83</v>
       </c>
       <c r="E8" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>17706</v>
+        <v>21933.279999999999</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -2678,19 +2900,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D9" s="6">
-        <v>1460</v>
+        <v>1815.18</v>
       </c>
       <c r="E9" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>23360</v>
+        <v>5445.54</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -2699,13 +2921,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="6">
+        <v>311.75</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
       <c r="F10" s="6">
-        <v>3000</v>
+        <v>6235</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2714,13 +2942,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -2729,13 +2961,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="6">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6">
+        <v>40</v>
+      </c>
       <c r="F12" s="6">
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -2744,47 +2982,55 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1362</v>
+      </c>
+      <c r="E13" s="6">
+        <v>13</v>
+      </c>
       <c r="F13" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>17706</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1460</v>
+      </c>
+      <c r="E14" s="6">
+        <v>16</v>
+      </c>
       <c r="F14" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>23360</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>14957</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -2793,126 +3039,212 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <v>1394</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="6">
-        <v>133</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>530</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>5950</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>92</v>
+      <c r="B19" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <v>2700</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>2000</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>120</v>
-      </c>
-      <c r="F20" s="2">
-        <v>240</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>14957</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>1394</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="B22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="6">
+        <v>133</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>530</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>2700</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2">
+        <v>240</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>2000</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23">
-        <f>SUM(F3:F22)</f>
-        <v>172295</v>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F3:F27)</f>
+        <v>172910.82</v>
       </c>
     </row>
   </sheetData>
@@ -2943,13 +3275,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -2961,10 +3293,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -2975,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3">
         <v>42560</v>
@@ -2990,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3">
         <v>42564</v>
@@ -3005,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3">
         <v>42564</v>
@@ -3020,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3">
         <v>42575</v>
@@ -3035,14 +3367,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2">
         <v>1000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3050,14 +3382,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2">
         <v>2000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3065,14 +3397,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>3000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3080,14 +3412,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>440</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3095,21 +3427,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>590</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
